--- a/мисит (моделирование информационных систем и технологий)/Лаба2 по Варианту.xlsx
+++ b/мисит (моделирование информационных систем и технологий)/Лаба2 по Варианту.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9873FF-D49C-453B-B313-3441CB794DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D86E2C7-51B7-41B1-A75F-81458F9CD3A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L0" sheetId="1" r:id="rId1"/>
@@ -837,7 +837,528 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результаты!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1/4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Результаты!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.991150442477888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172.91666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.047935103244832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A4E-4696-BFA5-80823201B98A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результаты!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2/3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Результаты!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.680355160932294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.47058823529412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146.22641509433959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A4E-4696-BFA5-80823201B98A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результаты!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3/2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Результаты!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.16577540106951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.47058823529412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.757575757575736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A4E-4696-BFA5-80823201B98A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результаты!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Результаты!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.672634271099696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>244.11764705882354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.47058823529414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.565217391304373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2A4E-4696-BFA5-80823201B98A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="485798528"/>
+        <c:axId val="486030112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="485798528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486030112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="486030112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485798528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1361,6 +1882,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1426,6 +2452,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71BF21E-F018-4C8B-BF0B-2A5A6AA37E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1699,13 +2761,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1714,7 +2776,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1723,7 +2785,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +2796,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
@@ -1745,7 +2807,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="16" t="s">
         <v>3</v>
@@ -1762,7 +2824,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +2843,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1800,7 +2862,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
@@ -1817,7 +2879,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1826,7 +2888,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
@@ -1834,7 +2896,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -1844,7 +2906,7 @@
       </c>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21" t="s">
         <v>12</v>
@@ -1853,7 +2915,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
@@ -1869,7 +2931,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1887,7 +2949,7 @@
         <v>126.47058823529412</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1905,13 +2967,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f>SUM(C18:E18)</f>
         <v>279517.64705882355</v>
@@ -1929,18 +2991,18 @@
         <v>104464.70588235294</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="20"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1957,7 +3019,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1974,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>17</v>
       </c>
@@ -2001,13 +3063,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B7B0D9-A288-4AD3-BC88-FE5F7C2DEB42}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2016,7 +3078,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2025,7 +3087,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2036,7 +3098,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
@@ -2047,7 +3109,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="16" t="s">
         <v>3</v>
@@ -2064,7 +3126,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -2083,7 +3145,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -2102,7 +3164,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
@@ -2119,7 +3181,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2128,7 +3190,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
@@ -2136,7 +3198,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -2146,7 +3208,7 @@
       </c>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21" t="s">
         <v>12</v>
@@ -2155,7 +3217,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
@@ -2171,7 +3233,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +3251,7 @@
         <v>76.991150442477888</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2207,13 +3269,13 @@
         <v>35.047935103244832</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f>SUM(C18:E18)</f>
         <v>333607.07964601769</v>
@@ -2231,18 +3293,18 @@
         <v>114694.57964601769</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="20"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2259,7 +3321,7 @@
         <v>2617.6991150442482</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2276,7 +3338,7 @@
         <v>1682.3008849557518</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>17</v>
       </c>
@@ -2303,13 +3365,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CDC3F3-9B2C-45A6-92AF-583622F5DBD6}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2318,7 +3380,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2327,7 +3389,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +3400,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
@@ -2349,7 +3411,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="16" t="s">
         <v>3</v>
@@ -2366,7 +3428,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -2385,7 +3447,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -2404,7 +3466,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
@@ -2421,7 +3483,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2430,7 +3492,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
@@ -2438,7 +3500,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -2448,7 +3510,7 @@
       </c>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21" t="s">
         <v>12</v>
@@ -2457,7 +3519,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
@@ -2473,7 +3535,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2491,7 +3553,7 @@
         <v>126.47058823529412</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2509,13 +3571,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f>SUM(C18:E18)</f>
         <v>318149.05660377356</v>
@@ -2533,18 +3595,18 @@
         <v>104464.70588235294</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="20"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2561,7 +3623,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2578,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>17</v>
       </c>
@@ -2605,13 +3667,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5035389F-C268-421E-A1EA-1749A7F9D8C9}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2620,7 +3682,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2629,7 +3691,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +3702,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
@@ -2651,7 +3713,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="16" t="s">
         <v>3</v>
@@ -2668,7 +3730,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -2687,7 +3749,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -2706,7 +3768,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
@@ -2723,7 +3785,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2732,7 +3794,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
@@ -2740,7 +3802,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -2750,7 +3812,7 @@
       </c>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21" t="s">
         <v>12</v>
@@ -2759,7 +3821,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
@@ -2775,7 +3837,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2793,7 +3855,7 @@
         <v>126.47058823529412</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2811,13 +3873,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f>SUM(C18:E18)</f>
         <v>304345.45454545453</v>
@@ -2835,18 +3897,18 @@
         <v>104464.70588235294</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="20"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2863,7 +3925,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2880,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>17</v>
       </c>
@@ -2907,13 +3969,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F96C7-C4D5-4C32-AB74-F5A4D8656959}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2922,7 +3984,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2931,7 +3993,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +4004,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
@@ -2953,7 +4015,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="16" t="s">
         <v>3</v>
@@ -2970,7 +4032,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -2989,7 +4051,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -3008,7 +4070,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
@@ -3025,7 +4087,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3034,7 +4096,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
@@ -3042,7 +4104,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -3052,7 +4114,7 @@
       </c>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="21" t="s">
         <v>12</v>
@@ -3061,7 +4123,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
@@ -3077,7 +4139,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -3095,7 +4157,7 @@
         <v>126.47058823529414</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3113,13 +4175,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <f>SUM(C18:E18)</f>
         <v>288963.04347826092</v>
@@ -3137,18 +4199,18 @@
         <v>104464.70588235297</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="20"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3165,7 +4227,7 @@
         <v>4300.0000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3182,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>17</v>
       </c>
@@ -3209,16 +4271,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DABF37-127B-43EF-A377-00C268753D36}">
   <dimension ref="A4:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>18</v>
       </c>
@@ -3236,7 +4298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>23</v>
       </c>
@@ -3261,7 +4323,7 @@
         <v>7.672634271099696</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>24</v>
       </c>
@@ -3286,7 +4348,7 @@
         <v>244.11764705882354</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>25</v>
       </c>
@@ -3311,7 +4373,7 @@
         <v>126.47058823529414</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>26</v>
       </c>
@@ -3336,7 +4398,7 @@
         <v>94.565217391304373</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>27</v>
       </c>
@@ -3361,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>28</v>
       </c>
@@ -3386,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>29</v>
       </c>

--- a/мисит (моделирование информационных систем и технологий)/Лаба2 по Варианту.xlsx
+++ b/мисит (моделирование информационных систем и технологий)/Лаба2 по Варианту.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D86E2C7-51B7-41B1-A75F-81458F9CD3A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E349389-62FF-452F-8CBB-73D7895AC154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,8 +601,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12237310614386152"/>
-          <c:y val="5.0925925925925923E-2"/>
+          <c:x val="0.1161773458615071"/>
+          <c:y val="7.0249534025638105E-2"/>
           <c:w val="0.84199214164860769"/>
           <c:h val="0.8416746864975212"/>
         </c:manualLayout>
@@ -2423,16 +2423,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2459,16 +2459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4271,8 +4271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DABF37-127B-43EF-A377-00C268753D36}">
   <dimension ref="A4:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
